--- a/List of Kinetic Models.xlsx
+++ b/List of Kinetic Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\kinmodre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C266D-3232-4193-A18D-F3C8B65AF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823AC7C-572E-47EE-9210-66467A2FF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>Model Name</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>stheVS26</t>
+  </si>
+  <si>
+    <t>hinSAH26</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1357,11 +1360,26 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2026</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>699</v>
+      </c>
+      <c r="F21" s="2">
+        <v>452</v>
+      </c>
+      <c r="G21" s="2">
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
